--- a/results/I3_N5_M3_T30_C200_DepCentral_s4_P5_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepCentral_s4_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.9133497487953</v>
+        <v>1092.166683880295</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.22334974879524</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.610172408098745</v>
+        <v>6.333839975440975</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.610172408098745</v>
+        <v>5.764833041814827</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.69</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,12 +606,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -733,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -780,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -824,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -835,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -846,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.15868643584639</v>
+        <v>21.61595173195241</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>24.77463816779881</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.77463816779881</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>12.46902814888773</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.12492551463005</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.14560977921956</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.81602556806575</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,13 +1031,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1023,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1037,15 +1059,113 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1203,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>136.5050000000014</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>141.37</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14">
@@ -1225,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>151.64</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>147.335</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.25</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000000073</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18">
@@ -1269,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19">
@@ -1280,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000073</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20">
@@ -1291,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000073</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000073</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>198.9800000000014</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>211.685</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
@@ -1335,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>214.3</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>220.545</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>215.315</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>62.4849999999997</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>67.7649999999997</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>70.50499999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>69.0599999999997</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1412,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>66.45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1423,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>198.9800000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1434,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>211.685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>220.545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>215.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1478,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>62.4849999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1489,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>67.7649999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1500,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>70.50499999999971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1511,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>69.0599999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1522,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>66.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1533,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>107.9950000000001</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43">
@@ -1544,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>105.5100000000001</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44">
@@ -1555,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>104.6650000000001</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45">
@@ -1566,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>104.5050000000001</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46">
@@ -1577,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>96.60500000000008</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1646,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>20.545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1668,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1734,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -1745,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -1756,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -1778,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1836,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1847,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1858,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1869,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1990,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2012,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2023,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2045,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2056,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2067,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2078,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2089,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,10 +2250,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2141,10 +2261,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2152,10 +2272,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2163,12 +2283,78 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
